--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/198b9d1699ce3ced/Documentos/ComprasPublicas/ML_SNCP/IA_CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{411BB0F1-96C9-42FC-A03B-B66FB343C79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E25BD37-6963-4522-A831-D86819EC52E8}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{411BB0F1-96C9-42FC-A03B-B66FB343C79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5BC4BE-4C04-4CBE-8405-63ECD43B5384}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53487A15-A7F6-46E9-A0AD-F0DB7E5EFDE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -49,16 +49,19 @@
   <si>
     <t>Gast_SPF</t>
   </si>
+  <si>
+    <t>Ofert_M1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -93,13 +101,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -118,10 +129,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,20 +428,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB312A98-C9A9-4F38-89D1-B01F635EDC81}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +457,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -458,11 +471,14 @@
       <c r="C2" s="3">
         <v>1538708690.5718</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>2346854930.8334684</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>18052328008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42036</v>
       </c>
@@ -475,8 +491,11 @@
       <c r="D3" s="3">
         <v>3246543748.5795012</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <v>17847905358.999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42064</v>
       </c>
@@ -489,8 +508,11 @@
       <c r="D4" s="3">
         <v>3697877165.9559727</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4">
+        <v>18282969416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42095</v>
       </c>
@@ -503,8 +525,11 @@
       <c r="D5" s="3">
         <v>3185393167.5095887</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>18172626051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42125</v>
       </c>
@@ -517,8 +542,11 @@
       <c r="D6" s="3">
         <v>3691454350.634346</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>18157936735.999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>42156</v>
       </c>
@@ -531,8 +559,11 @@
       <c r="D7" s="3">
         <v>3771240037.6520691</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>18279717737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42186</v>
       </c>
@@ -545,8 +576,11 @@
       <c r="D8" s="3">
         <v>3478080127.6936083</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>18601875380.999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>42217</v>
       </c>
@@ -559,8 +593,11 @@
       <c r="D9" s="3">
         <v>3367214305.146328</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>18772184576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42248</v>
       </c>
@@ -573,8 +610,11 @@
       <c r="D10" s="3">
         <v>3375257374.9208279</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>18429307599.999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42278</v>
       </c>
@@ -587,8 +627,11 @@
       <c r="D11" s="3">
         <v>3497090454.045064</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <v>18436044582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42309</v>
       </c>
@@ -601,8 +644,11 @@
       <c r="D12" s="3">
         <v>3316169893.7302208</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>18482327133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42339</v>
       </c>
@@ -615,8 +661,11 @@
       <c r="D13" s="3">
         <v>5947731286.8672667</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <v>19041653119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42370</v>
       </c>
@@ -629,8 +678,11 @@
       <c r="D14" s="3">
         <v>2460689021.27004</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4">
+        <v>18841476863.999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42401</v>
       </c>
@@ -643,8 +695,11 @@
       <c r="D15" s="3">
         <v>3269753522.2075119</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="4">
+        <v>19250481121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42430</v>
       </c>
@@ -657,8 +712,11 @@
       <c r="D16" s="3">
         <v>3722527471.5430255</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <v>19534075274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42461</v>
       </c>
@@ -671,8 +729,11 @@
       <c r="D17" s="3">
         <v>3137176891.900177</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
+        <v>19551043370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42491</v>
       </c>
@@ -685,8 +746,11 @@
       <c r="D18" s="3">
         <v>3011551953.5815964</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <v>19867406175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42522</v>
       </c>
@@ -699,8 +763,11 @@
       <c r="D19" s="3">
         <v>3523135581.4157734</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="4">
+        <v>20216588340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42552</v>
       </c>
@@ -713,8 +780,11 @@
       <c r="D20" s="3">
         <v>3066908933.7557244</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <v>20253320798.999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42583</v>
       </c>
@@ -727,8 +797,11 @@
       <c r="D21" s="3">
         <v>3578112988.2794404</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <v>20631449662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42614</v>
       </c>
@@ -741,8 +814,11 @@
       <c r="D22" s="3">
         <v>3673195660.9232116</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
+        <v>20794499334.999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42644</v>
       </c>
@@ -755,8 +831,11 @@
       <c r="D23" s="3">
         <v>3432042856.7640762</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="4">
+        <v>20805073641.999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42675</v>
       </c>
@@ -769,8 +848,11 @@
       <c r="D24" s="3">
         <v>3727643827.1272316</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <v>21140031998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42705</v>
       </c>
@@ -783,8 +865,11 @@
       <c r="D25" s="3">
         <v>6576460346.7855196</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <v>22634900894.999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42736</v>
       </c>
@@ -797,8 +882,11 @@
       <c r="D26" s="3">
         <v>2384170449.4354019</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="4">
+        <v>21912186023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42767</v>
       </c>
@@ -811,8 +899,11 @@
       <c r="D27" s="3">
         <v>3051439335.261375</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <v>22193523037.999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42795</v>
       </c>
@@ -825,8 +916,11 @@
       <c r="D28" s="3">
         <v>4110445399.1989522</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <v>23032941801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42826</v>
       </c>
@@ -839,8 +933,11 @@
       <c r="D29" s="3">
         <v>3409833554.7877111</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <v>22842298135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42856</v>
       </c>
@@ -853,8 +950,11 @@
       <c r="D30" s="3">
         <v>3169874271.9228606</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <v>22706121416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42887</v>
       </c>
@@ -867,8 +967,11 @@
       <c r="D31" s="3">
         <v>3354598746.3228688</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <v>22824908335.000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42917</v>
       </c>
@@ -881,8 +984,11 @@
       <c r="D32" s="3">
         <v>2962621142.6742792</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <v>22812303501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42948</v>
       </c>
@@ -895,8 +1001,11 @@
       <c r="D33" s="3">
         <v>3326232041.899231</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <v>22992928506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42979</v>
       </c>
@@ -909,8 +1018,11 @@
       <c r="D34" s="3">
         <v>3312666026.4274797</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <v>22779204783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43009</v>
       </c>
@@ -923,8 +1035,11 @@
       <c r="D35" s="3">
         <v>3167432319.9246311</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>23150368643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43040</v>
       </c>
@@ -937,8 +1052,11 @@
       <c r="D36" s="3">
         <v>3619188991.0636744</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <v>23657004138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43070</v>
       </c>
@@ -951,8 +1069,11 @@
       <c r="D37" s="3">
         <v>6515893093.0026693</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <v>24530511715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43101</v>
       </c>
@@ -965,8 +1086,11 @@
       <c r="D38" s="3">
         <v>2470576294.8335462</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>23951929211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43132</v>
       </c>
@@ -979,8 +1103,11 @@
       <c r="D39" s="3">
         <v>2956525857.4374132</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>24065587390.999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43160</v>
       </c>
@@ -993,8 +1120,11 @@
       <c r="D40" s="3">
         <v>3949529422.960886</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <v>24427190895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43191</v>
       </c>
@@ -1007,8 +1137,11 @@
       <c r="D41" s="3">
         <v>3520637236.3953323</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <v>23979424137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43221</v>
       </c>
@@ -1021,8 +1154,11 @@
       <c r="D42" s="3">
         <v>3340055410.8432994</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>23880579013.999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43252</v>
       </c>
@@ -1035,8 +1171,11 @@
       <c r="D43" s="3">
         <v>3594832984.1670394</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <v>24057502860</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43282</v>
       </c>
@@ -1049,8 +1188,11 @@
       <c r="D44" s="3">
         <v>3464212536.5863495</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <v>23983440972.000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43313</v>
       </c>
@@ -1063,8 +1205,11 @@
       <c r="D45" s="3">
         <v>3508009550.29531</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>24297850508.000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43344</v>
       </c>
@@ -1077,8 +1222,11 @@
       <c r="D46" s="3">
         <v>3870017985.1244264</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>24092290029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43374</v>
       </c>
@@ -1091,8 +1239,11 @@
       <c r="D47" s="3">
         <v>3523382271.6208701</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <v>24261754662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43405</v>
       </c>
@@ -1105,8 +1256,11 @@
       <c r="D48" s="3">
         <v>3443662486.375216</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <v>24542603978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43435</v>
       </c>
@@ -1119,8 +1273,11 @@
       <c r="D49" s="3">
         <v>6421834161.3089266</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>25259942392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43466</v>
       </c>
@@ -1133,8 +1290,11 @@
       <c r="D50" s="3">
         <v>2903216902.4118075</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <v>24643713551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43497</v>
       </c>
@@ -1147,8 +1307,11 @@
       <c r="D51" s="3">
         <v>3066324613.2144427</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="4">
+        <v>24901062931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43525</v>
       </c>
@@ -1161,8 +1324,11 @@
       <c r="D52" s="3">
         <v>3578074702.2103496</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="4">
+        <v>24995886431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43556</v>
       </c>
@@ -1175,8 +1341,11 @@
       <c r="D53" s="3">
         <v>3604179267.3825755</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="4">
+        <v>24883392957.999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43586</v>
       </c>
@@ -1189,8 +1358,11 @@
       <c r="D54" s="3">
         <v>3639596563.4838619</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="4">
+        <v>24695291376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43617</v>
       </c>
@@ -1203,8 +1375,11 @@
       <c r="D55" s="3">
         <v>3325899386.1750555</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="4">
+        <v>24720538170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43647</v>
       </c>
@@ -1217,8 +1392,11 @@
       <c r="D56" s="3">
         <v>3651482897.6918445</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="4">
+        <v>24921386671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43678</v>
       </c>
@@ -1231,8 +1409,11 @@
       <c r="D57" s="3">
         <v>3392698674.1965995</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="4">
+        <v>25033935854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43709</v>
       </c>
@@ -1245,8 +1426,11 @@
       <c r="D58" s="3">
         <v>3498722258.9835911</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="4">
+        <v>24989002026.000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43739</v>
       </c>
@@ -1259,8 +1443,11 @@
       <c r="D59" s="3">
         <v>3359480820.1183381</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
+        <v>25209838733</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43770</v>
       </c>
@@ -1273,8 +1460,11 @@
       <c r="D60" s="3">
         <v>3408820990.510427</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="4">
+        <v>25363349601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43800</v>
       </c>
@@ -1287,8 +1477,11 @@
       <c r="D61" s="3">
         <v>5413908370.6279345</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <v>26196710652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43831</v>
       </c>
@@ -1301,8 +1494,11 @@
       <c r="D62" s="3">
         <v>3006290099.036685</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="4">
+        <v>25715647697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43862</v>
       </c>
@@ -1315,8 +1511,11 @@
       <c r="D63" s="3">
         <v>3022983990.5661893</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="4">
+        <v>26136507664.999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43891</v>
       </c>
@@ -1329,8 +1528,11 @@
       <c r="D64" s="3">
         <v>3399098758.8161645</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="4">
+        <v>26319277790.999992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43922</v>
       </c>
@@ -1343,8 +1545,11 @@
       <c r="D65" s="3">
         <v>2888328123.1786542</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="4">
+        <v>26715362232.999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43952</v>
       </c>
@@ -1357,8 +1562,11 @@
       <c r="D66" s="3">
         <v>2706489135.9549017</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="4">
+        <v>27138480952.999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43983</v>
       </c>
@@ -1371,8 +1579,11 @@
       <c r="D67" s="3">
         <v>2972859226.7662668</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>27401060168.999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44013</v>
       </c>
@@ -1385,8 +1596,11 @@
       <c r="D68" s="3">
         <v>3033003635.4490619</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="4">
+        <v>27144521542.999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44044</v>
       </c>
@@ -1399,8 +1613,11 @@
       <c r="D69" s="3">
         <v>3283225423.410634</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="4">
+        <v>27274794937</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44075</v>
       </c>
@@ -1413,8 +1630,11 @@
       <c r="D70" s="3">
         <v>2709606119.8423829</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="4">
+        <v>27283207631.999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44105</v>
       </c>
@@ -1427,8 +1647,11 @@
       <c r="D71" s="3">
         <v>3163353466.7749147</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="4">
+        <v>27320853209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44136</v>
       </c>
@@ -1441,8 +1664,11 @@
       <c r="D72" s="3">
         <v>3124227111.169661</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="4">
+        <v>27491455236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44166</v>
       </c>
@@ -1455,8 +1681,11 @@
       <c r="D73" s="3">
         <v>5313450649.0479765</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="4">
+        <v>28409496309.000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44197</v>
       </c>
@@ -1469,8 +1698,11 @@
       <c r="D74" s="3">
         <v>2461781649.8498702</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="4">
+        <v>27826334068.999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44228</v>
       </c>
@@ -1483,8 +1715,11 @@
       <c r="D75" s="3">
         <v>2548546210.7648726</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="4">
+        <v>27818046655.999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44256</v>
       </c>
@@ -1497,8 +1732,11 @@
       <c r="D76" s="3">
         <v>3660143772.6382689</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="4">
+        <v>28433190715.999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44287</v>
       </c>
@@ -1511,8 +1749,11 @@
       <c r="D77" s="3">
         <v>2986422207.3215175</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="4">
+        <v>28241929771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44317</v>
       </c>
@@ -1525,8 +1766,11 @@
       <c r="D78" s="3">
         <v>3322998280.9157281</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="4">
+        <v>28295870013.999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44348</v>
       </c>
@@ -1539,8 +1783,11 @@
       <c r="D79" s="3">
         <v>3241771789.070425</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="4">
+        <v>28252738817.999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44378</v>
       </c>
@@ -1553,8 +1800,11 @@
       <c r="D80" s="3">
         <v>3296045172.8346438</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="4">
+        <v>28472714894.999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44409</v>
       </c>
@@ -1567,8 +1817,11 @@
       <c r="D81" s="3">
         <v>3429915201.2223005</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="4">
+        <v>28673297346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44440</v>
       </c>
@@ -1581,8 +1834,11 @@
       <c r="D82" s="3">
         <v>3056494602.229239</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="4">
+        <v>28930546083.999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44470</v>
       </c>
@@ -1595,8 +1851,11 @@
       <c r="D83" s="3">
         <v>3098767480.5184278</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="4">
+        <v>29161433481.999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44501</v>
       </c>
@@ -1609,8 +1868,11 @@
       <c r="D84" s="3">
         <v>3341115593.294137</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="4">
+        <v>29428058589.999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44531</v>
       </c>
@@ -1623,8 +1885,11 @@
       <c r="D85" s="3">
         <v>5800715387.9130869</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="4">
+        <v>30254961210.999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44562</v>
       </c>
@@ -1637,8 +1902,11 @@
       <c r="D86" s="3">
         <v>2764729034.7501559</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="4">
+        <v>29590124119.999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44593</v>
       </c>
@@ -1651,8 +1919,11 @@
       <c r="D87" s="3">
         <v>3217859659.3506265</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="4">
+        <v>29554670658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44621</v>
       </c>
@@ -1665,8 +1936,11 @@
       <c r="D88" s="3">
         <v>3675633422.0928059</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="4">
+        <v>30176474871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44652</v>
       </c>
@@ -1679,8 +1953,11 @@
       <c r="D89" s="3">
         <v>3594362253.3319292</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="4">
+        <v>29664741318.999992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44682</v>
       </c>
@@ -1693,8 +1970,11 @@
       <c r="D90" s="3">
         <v>3369462683.8548813</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="4">
+        <v>29594130479.999992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44713</v>
       </c>
@@ -1707,8 +1987,11 @@
       <c r="D91" s="3">
         <v>3769260280.1718702</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="4">
+        <v>29541446704.999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
@@ -1721,8 +2004,11 @@
       <c r="D92" s="3">
         <v>3604302182.6980882</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="4">
+        <v>29414372518.999992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44774</v>
       </c>
@@ -1735,8 +2021,11 @@
       <c r="D93" s="3">
         <v>3819111211.3211384</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="4">
+        <v>29650807523.999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44805</v>
       </c>
@@ -1749,8 +2038,11 @@
       <c r="D94" s="3">
         <v>3661335650.3282552</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="4">
+        <v>29507658322.999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44835</v>
       </c>
@@ -1763,8 +2055,11 @@
       <c r="D95" s="3">
         <v>3724481427.8700871</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="4">
+        <v>29442376919.999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44866</v>
       </c>
@@ -1777,8 +2072,11 @@
       <c r="D96" s="3">
         <v>4019950166.5329261</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="4">
+        <v>29667626866.999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44896</v>
       </c>
@@ -1791,8 +2089,11 @@
       <c r="D97" s="3">
         <v>6003638074.1955051</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="4">
+        <v>30190795726.119995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44927</v>
       </c>
@@ -1805,8 +2106,11 @@
       <c r="D98" s="3">
         <v>3310520890.2510247</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="4">
+        <v>29932286073.899994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44958</v>
       </c>
@@ -1819,8 +2123,11 @@
       <c r="D99" s="3">
         <v>3554866327.2350345</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="4">
+        <v>29945172392.639992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44986</v>
       </c>
@@ -1833,8 +2140,11 @@
       <c r="D100" s="3">
         <v>3857420455.330966</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="4">
+        <v>30788161495.389996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45017</v>
       </c>
@@ -1847,8 +2157,11 @@
       <c r="D101" s="3">
         <v>3505118498.3137136</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="4">
+        <v>29948660230.429996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45047</v>
       </c>
@@ -1861,8 +2174,11 @@
       <c r="D102" s="3">
         <v>3999157858.6366358</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="4">
+        <v>29954211314.849991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45078</v>
       </c>
@@ -1875,8 +2191,11 @@
       <c r="D103" s="3">
         <v>3709134942.7364769</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="4">
+        <v>29696362010.339981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45108</v>
       </c>
@@ -1889,8 +2208,11 @@
       <c r="D104" s="3">
         <v>3543315304.1528077</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="4">
+        <v>29579504768.18998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45139</v>
       </c>
@@ -1902,6 +2224,9 @@
       </c>
       <c r="D105" s="3">
         <v>3543315304.1528077</v>
+      </c>
+      <c r="E105" s="4">
+        <v>29579504768.18998</v>
       </c>
     </row>
   </sheetData>
